--- a/data/testing/optimization/shell-vs-blank.xlsx
+++ b/data/testing/optimization/shell-vs-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/testing/optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868E930-E13B-9845-B8D8-F144D92CD0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799C5303-4AE9-1947-804F-B1FEAF11BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30600" yWindow="260" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{64AA6CDB-017A-4CF5-AA25-454EB3D41F17}"/>
+    <workbookView xWindow="-34720" yWindow="460" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{64AA6CDB-017A-4CF5-AA25-454EB3D41F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 2" sheetId="3" r:id="rId1"/>
@@ -8374,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846FFAC8-5BC4-DD48-9BC0-541BB92599CC}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
